--- a/data/sale_points.xlsx
+++ b/data/sale_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_version\bongo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46637826-22F0-4F96-84F1-1591C9615FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE17D5-7EE4-4081-8C23-5305BB8853F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1828">
   <si>
     <t>name</t>
   </si>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">M/S Agrijoint </t>
   </si>
   <si>
-    <t xml:space="preserve"> M/S Mondal traders</t>
-  </si>
-  <si>
     <t>M/S Jholmoliya seed store</t>
   </si>
   <si>
@@ -222,21 +219,9 @@
     <t xml:space="preserve">M/S Naim Beej Vander </t>
   </si>
   <si>
-    <t xml:space="preserve"> M/S Rumi traders</t>
-  </si>
-  <si>
     <t>M/S Noyon trader's</t>
   </si>
   <si>
-    <t xml:space="preserve"> M/S Ariyan tedars</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M/S Adil seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M/S Maruf enterprise</t>
-  </si>
-  <si>
     <t>M/S Alamin Traders</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t xml:space="preserve">M/S Dui bhai traders </t>
   </si>
   <si>
-    <t xml:space="preserve"> M/S Biswas Agro traders </t>
-  </si>
-  <si>
     <t>M/S Pran &amp; Miraj Traders</t>
   </si>
   <si>
@@ -1083,9 +1065,6 @@
     <t>M/S Ovi Enterprise</t>
   </si>
   <si>
-    <t xml:space="preserve"> M/s Jamshed Mulla Traders </t>
-  </si>
-  <si>
     <t>M/S Vai Vai Traders (Nazirpur)</t>
   </si>
   <si>
@@ -1113,9 +1092,6 @@
     <t>M/S Rakib &amp; Rifat Traders</t>
   </si>
   <si>
-    <t xml:space="preserve"> M/S Sohag Enterprise </t>
-  </si>
-  <si>
     <t>M/S  Krishi Biponi .</t>
   </si>
   <si>
@@ -1863,9 +1839,6 @@
     <t>NBG240</t>
   </si>
   <si>
-    <t>NRH 241</t>
-  </si>
-  <si>
     <t>EJP242</t>
   </si>
   <si>
@@ -1876,9 +1849,6 @@
   </si>
   <si>
     <t>EMS245</t>
-  </si>
-  <si>
-    <t>EJP 246</t>
   </si>
   <si>
     <t>NNG247</t>
@@ -5346,6 +5316,210 @@
   </si>
   <si>
     <t>Joypurhat Sadar</t>
+  </si>
+  <si>
+    <t>M/S Mondal traders</t>
+  </si>
+  <si>
+    <t>M/S Ariyan tedars</t>
+  </si>
+  <si>
+    <t>M/S Adil seeds</t>
+  </si>
+  <si>
+    <t>M/S Maruf enterprise</t>
+  </si>
+  <si>
+    <t>M/S Rumi traders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S Biswas Agro traders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/s Jamshed Mulla Traders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S Sohag Enterprise </t>
+  </si>
+  <si>
+    <t>M/S Shakil Enterprise</t>
+  </si>
+  <si>
+    <t>EMS171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostofa beej vander </t>
+  </si>
+  <si>
+    <t>Amuakanda,Fulpur</t>
+  </si>
+  <si>
+    <t>EJP246</t>
+  </si>
+  <si>
+    <t>NRH241</t>
+  </si>
+  <si>
+    <t>ECM359</t>
+  </si>
+  <si>
+    <t>M/S Mukta Liza Shar Bitan</t>
+  </si>
+  <si>
+    <t>Shahebabad Bpara,Cumilla</t>
+  </si>
+  <si>
+    <t>07130177115</t>
+  </si>
+  <si>
+    <t>WJD360</t>
+  </si>
+  <si>
+    <t>Vatoi,Bazar,Sailkupa,Jhenaidah</t>
+  </si>
+  <si>
+    <t>Md.Nurul Islam</t>
+  </si>
+  <si>
+    <t>01638407492</t>
+  </si>
+  <si>
+    <t>NNG361</t>
+  </si>
+  <si>
+    <t>M/S Mahabub Traders</t>
+  </si>
+  <si>
+    <t>Matajihat,Mohadebpur Road,Naogaon</t>
+  </si>
+  <si>
+    <t>Md.Mahabub Alom</t>
+  </si>
+  <si>
+    <t>01734246768</t>
+  </si>
+  <si>
+    <t>ECM362</t>
+  </si>
+  <si>
+    <t>M/S Boishakhi Enterprise</t>
+  </si>
+  <si>
+    <t>Chakbazar Sadar,Cumilla</t>
+  </si>
+  <si>
+    <t>Md.Liakot Ali</t>
+  </si>
+  <si>
+    <t>0198720038</t>
+  </si>
+  <si>
+    <t>NDP363</t>
+  </si>
+  <si>
+    <t>Pulhat,Birganj,Dinajpur</t>
+  </si>
+  <si>
+    <t>Md.Bulbul Ahmed</t>
+  </si>
+  <si>
+    <t>01710907670</t>
+  </si>
+  <si>
+    <t>WJD367</t>
+  </si>
+  <si>
+    <t>Parbatipur,Horinakundu,Jhenaidah</t>
+  </si>
+  <si>
+    <t>Md.Ashraful Alam</t>
+  </si>
+  <si>
+    <t>01759535027</t>
+  </si>
+  <si>
+    <t>WMG342</t>
+  </si>
+  <si>
+    <t>M/S Dilip Builders</t>
+  </si>
+  <si>
+    <t>Jamsha Bazar,Singair,Manikgonj</t>
+  </si>
+  <si>
+    <t>Diren Roy</t>
+  </si>
+  <si>
+    <t>01725310190</t>
+  </si>
+  <si>
+    <t>SFP365</t>
+  </si>
+  <si>
+    <t>M/S Mollah Traders</t>
+  </si>
+  <si>
+    <t>Mojumder Bazar,Sadorpur,Foridpur</t>
+  </si>
+  <si>
+    <t>Md.Billa Hossain</t>
+  </si>
+  <si>
+    <t>01733288315</t>
+  </si>
+  <si>
+    <t>NRH364</t>
+  </si>
+  <si>
+    <t>M/S Musa Enterpeise</t>
+  </si>
+  <si>
+    <t>Jattrapur Atghoria,Pabna</t>
+  </si>
+  <si>
+    <t>01723814395</t>
+  </si>
+  <si>
+    <t>SFP366</t>
+  </si>
+  <si>
+    <t>M/S Rustom Enterprise</t>
+  </si>
+  <si>
+    <t>Hat Krishnopur Bazar,Sadorpur,Foridpur</t>
+  </si>
+  <si>
+    <t>Md.Rustom Mia</t>
+  </si>
+  <si>
+    <t>01713502635</t>
+  </si>
+  <si>
+    <t>Crystal Crop Care Ltd.</t>
+  </si>
+  <si>
+    <t>CCCC01</t>
+  </si>
+  <si>
+    <t>Betgari,Shajahanpur,Bogura.</t>
+  </si>
+  <si>
+    <t>Kbd.Khondokar Moqbul Hossain</t>
+  </si>
+  <si>
+    <t>01714068370</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Concern World Wide</t>
+  </si>
+  <si>
+    <t>CCWW02</t>
+  </si>
+  <si>
+    <t>Rathnapalong, Ukhiya, Cox's Bazar</t>
   </si>
 </sst>
 </file>
@@ -5400,7 +5574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5430,9 +5604,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5722,11 +5893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K358"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E340" sqref="E340"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,16 +5950,16 @@
         <v>54</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -5806,16 +5977,16 @@
         <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -5833,16 +6004,16 @@
         <v>56</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -5860,16 +6031,16 @@
         <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -5884,19 +6055,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>1760</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -5911,19 +6082,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -5938,19 +6109,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -5965,19 +6136,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -5992,19 +6163,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>1764</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>13</v>
@@ -6019,19 +6190,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -6046,19 +6217,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>1761</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>13</v>
@@ -6073,19 +6244,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>1762</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>13</v>
@@ -6100,19 +6271,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>1763</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>13</v>
@@ -6127,19 +6298,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>13</v>
@@ -6154,19 +6325,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>13</v>
@@ -6181,19 +6352,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>13</v>
@@ -6208,19 +6379,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>13</v>
@@ -6235,19 +6406,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>1765</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>13</v>
@@ -6259,19 +6430,19 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>13</v>
@@ -6282,19 +6453,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>13</v>
@@ -6305,19 +6476,19 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
@@ -6328,19 +6499,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>13</v>
@@ -6351,19 +6522,19 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>13</v>
@@ -6374,19 +6545,19 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>13</v>
@@ -6400,19 +6571,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>13</v>
@@ -6427,19 +6598,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>13</v>
@@ -6454,19 +6625,19 @@
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>13</v>
@@ -6481,19 +6652,19 @@
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>13</v>
@@ -6508,19 +6679,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>13</v>
@@ -6535,19 +6706,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>13</v>
@@ -6562,16 +6733,16 @@
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="8" t="s">
@@ -6587,19 +6758,19 @@
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>13</v>
@@ -6614,19 +6785,19 @@
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>13</v>
@@ -6641,19 +6812,19 @@
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>13</v>
@@ -6668,19 +6839,19 @@
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
@@ -6695,19 +6866,19 @@
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>13</v>
@@ -6722,19 +6893,19 @@
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>13</v>
@@ -6749,19 +6920,19 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>13</v>
@@ -6776,19 +6947,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>13</v>
@@ -6803,19 +6974,19 @@
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>13</v>
@@ -6830,19 +7001,19 @@
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>13</v>
@@ -6857,19 +7028,19 @@
         <v>3</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>13</v>
@@ -6884,19 +7055,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>13</v>
@@ -6911,19 +7082,19 @@
         <v>3</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>13</v>
@@ -6938,19 +7109,19 @@
         <v>3</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>13</v>
@@ -6965,19 +7136,19 @@
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>13</v>
@@ -6992,19 +7163,19 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>13</v>
@@ -7019,19 +7190,19 @@
         <v>28</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>13</v>
@@ -7046,19 +7217,19 @@
         <v>28</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>13</v>
@@ -7073,19 +7244,19 @@
         <v>28</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>13</v>
@@ -7100,19 +7271,19 @@
         <v>28</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>13</v>
@@ -7127,19 +7298,19 @@
         <v>28</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>13</v>
@@ -7154,19 +7325,19 @@
         <v>28</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>13</v>
@@ -7181,16 +7352,16 @@
         <v>28</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="8" t="s">
@@ -7206,19 +7377,19 @@
         <v>9</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>13</v>
@@ -7233,19 +7404,19 @@
         <v>9</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>13</v>
@@ -7260,19 +7431,19 @@
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>13</v>
@@ -7287,19 +7458,19 @@
         <v>9</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>13</v>
@@ -7308,25 +7479,25 @@
     </row>
     <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>13</v>
@@ -7341,19 +7512,19 @@
         <v>28</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>13</v>
@@ -7362,25 +7533,25 @@
     </row>
     <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>13</v>
@@ -7395,19 +7566,19 @@
         <v>9</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>13</v>
@@ -7422,19 +7593,19 @@
         <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>13</v>
@@ -7449,19 +7620,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>13</v>
@@ -7476,19 +7647,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>13</v>
@@ -7503,19 +7674,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>13</v>
@@ -7530,19 +7701,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>13</v>
@@ -7557,19 +7728,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>13</v>
@@ -7584,19 +7755,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>13</v>
@@ -7611,19 +7782,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>13</v>
@@ -7638,19 +7809,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>13</v>
@@ -7665,19 +7836,19 @@
         <v>13</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>13</v>
@@ -7692,19 +7863,19 @@
         <v>13</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>13</v>
@@ -7719,16 +7890,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>13</v>
@@ -7739,16 +7910,16 @@
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>13</v>
@@ -7759,19 +7930,19 @@
         <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>13</v>
@@ -7782,19 +7953,19 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>13</v>
@@ -7805,19 +7976,19 @@
         <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>13</v>
@@ -7831,19 +8002,19 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>13</v>
@@ -7854,19 +8025,19 @@
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>13</v>
@@ -7877,19 +8048,19 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>13</v>
@@ -7900,19 +8071,19 @@
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>13</v>
@@ -7923,19 +8094,19 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>13</v>
@@ -7946,19 +8117,19 @@
         <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>13</v>
@@ -7969,19 +8140,19 @@
         <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>13</v>
@@ -7992,19 +8163,19 @@
         <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>13</v>
@@ -8015,19 +8186,19 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>13</v>
@@ -8038,19 +8209,19 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>13</v>
@@ -8061,19 +8232,19 @@
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>13</v>
@@ -8084,19 +8255,19 @@
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>13</v>
@@ -8107,19 +8278,19 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>13</v>
@@ -8130,16 +8301,16 @@
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>13</v>
@@ -8153,19 +8324,19 @@
         <v>6</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>13</v>
@@ -8180,16 +8351,16 @@
         <v>3</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="8" t="s">
@@ -8205,19 +8376,19 @@
         <v>3</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>13</v>
@@ -8232,19 +8403,19 @@
         <v>9</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>13</v>
@@ -8259,19 +8430,19 @@
         <v>5</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>13</v>
@@ -8286,19 +8457,19 @@
         <v>5</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>13</v>
@@ -8313,19 +8484,19 @@
         <v>5</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>13</v>
@@ -8340,19 +8511,19 @@
         <v>5</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>13</v>
@@ -8367,19 +8538,19 @@
         <v>7</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>13</v>
@@ -8394,19 +8565,19 @@
         <v>20</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>13</v>
@@ -8421,19 +8592,19 @@
         <v>20</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>13</v>
@@ -8448,19 +8619,19 @@
         <v>20</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>13</v>
@@ -8475,19 +8646,19 @@
         <v>15</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>13</v>
@@ -8502,19 +8673,19 @@
         <v>7</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>13</v>
@@ -8529,19 +8700,19 @@
         <v>7</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>13</v>
@@ -8556,19 +8727,19 @@
         <v>7</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>13</v>
@@ -8583,19 +8754,19 @@
         <v>27</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>13</v>
@@ -8610,19 +8781,19 @@
         <v>27</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>13</v>
@@ -8637,19 +8808,19 @@
         <v>5</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>13</v>
@@ -8664,19 +8835,19 @@
         <v>18</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>13</v>
@@ -8691,19 +8862,19 @@
         <v>10</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>13</v>
@@ -8718,19 +8889,19 @@
         <v>19</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>13</v>
@@ -8745,19 +8916,19 @@
         <v>4</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>13</v>
@@ -8772,19 +8943,19 @@
         <v>4</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>13</v>
@@ -8799,19 +8970,19 @@
         <v>30</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>13</v>
@@ -8826,19 +8997,19 @@
         <v>19</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>13</v>
@@ -8850,19 +9021,19 @@
         <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>13</v>
@@ -8876,19 +9047,19 @@
         <v>4</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>13</v>
@@ -8903,19 +9074,19 @@
         <v>30</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="H122" s="8" t="s">
         <v>13</v>
@@ -8930,19 +9101,19 @@
         <v>4</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>13</v>
@@ -8957,19 +9128,19 @@
         <v>4</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="H124" s="8" t="s">
         <v>13</v>
@@ -8984,19 +9155,19 @@
         <v>4</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>13</v>
@@ -9011,19 +9182,19 @@
         <v>27</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>13</v>
@@ -9038,19 +9209,19 @@
         <v>18</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>13</v>
@@ -9065,19 +9236,19 @@
         <v>18</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>13</v>
@@ -9092,19 +9263,19 @@
         <v>30</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>13</v>
@@ -9119,19 +9290,19 @@
         <v>30</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>13</v>
@@ -9146,19 +9317,19 @@
         <v>1</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>13</v>
@@ -9176,16 +9347,16 @@
         <v>54</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>13</v>
@@ -9200,19 +9371,19 @@
         <v>1</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>13</v>
@@ -9227,19 +9398,19 @@
         <v>1</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>13</v>
@@ -9254,19 +9425,19 @@
         <v>1</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>13</v>
@@ -9281,19 +9452,19 @@
         <v>1</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>13</v>
@@ -9308,19 +9479,19 @@
         <v>1</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>13</v>
@@ -9335,19 +9506,19 @@
         <v>1</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>13</v>
@@ -9362,19 +9533,19 @@
         <v>1</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>13</v>
@@ -9389,19 +9560,19 @@
         <v>1</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>13</v>
@@ -9413,19 +9584,19 @@
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>13</v>
@@ -9436,19 +9607,19 @@
         <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>13</v>
@@ -9459,19 +9630,19 @@
         <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>13</v>
@@ -9482,19 +9653,19 @@
         <v>39</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>13</v>
@@ -9505,19 +9676,19 @@
         <v>39</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>13</v>
@@ -9528,19 +9699,19 @@
         <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>13</v>
@@ -9551,19 +9722,19 @@
         <v>39</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>13</v>
@@ -9574,19 +9745,19 @@
         <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>13</v>
@@ -9600,19 +9771,19 @@
         <v>2</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="H149" s="8" t="s">
         <v>13</v>
@@ -9627,19 +9798,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>13</v>
@@ -9654,19 +9825,19 @@
         <v>9</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>13</v>
@@ -9681,19 +9852,19 @@
         <v>9</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>13</v>
@@ -9708,19 +9879,19 @@
         <v>9</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>13</v>
@@ -9735,19 +9906,19 @@
         <v>6</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>13</v>
@@ -9762,19 +9933,19 @@
         <v>9</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>13</v>
@@ -9789,19 +9960,19 @@
         <v>13</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>13</v>
@@ -9816,13 +9987,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
@@ -9839,19 +10010,19 @@
         <v>15</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="H158" s="8" t="s">
         <v>13</v>
@@ -9866,19 +10037,19 @@
         <v>27</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>13</v>
@@ -9893,17 +10064,17 @@
         <v>15</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="10" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="H160" s="8" t="s">
         <v>13</v>
@@ -9918,17 +10089,17 @@
         <v>27</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="10" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>13</v>
@@ -9943,17 +10114,17 @@
         <v>27</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="10" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>13</v>
@@ -9968,19 +10139,19 @@
         <v>10</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>13</v>
@@ -9995,19 +10166,19 @@
         <v>27</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>13</v>
@@ -10019,19 +10190,19 @@
         <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>13</v>
@@ -10045,19 +10216,19 @@
         <v>1</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="H166" s="8" t="s">
         <v>13</v>
@@ -10072,19 +10243,19 @@
         <v>29</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>13</v>
@@ -10099,19 +10270,19 @@
         <v>12</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="H168" s="8" t="s">
         <v>13</v>
@@ -10126,19 +10297,19 @@
         <v>15</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="H169" s="8" t="s">
         <v>13</v>
@@ -10153,19 +10324,19 @@
         <v>10</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>13</v>
@@ -10180,19 +10351,19 @@
         <v>9</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="H171" s="8" t="s">
         <v>13</v>
@@ -10207,19 +10378,19 @@
         <v>4</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>13</v>
@@ -10234,19 +10405,19 @@
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="H173" s="8" t="s">
         <v>13</v>
@@ -10261,19 +10432,19 @@
         <v>5</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>13</v>
@@ -10288,19 +10459,19 @@
         <v>15</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="H175" s="8" t="s">
         <v>13</v>
@@ -10315,19 +10486,19 @@
         <v>15</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="H176" s="8" t="s">
         <v>13</v>
@@ -10342,19 +10513,19 @@
         <v>15</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>13</v>
@@ -10369,19 +10540,19 @@
         <v>7</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>13</v>
@@ -10396,19 +10567,19 @@
         <v>5</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="H179" s="8" t="s">
         <v>13</v>
@@ -10423,19 +10594,19 @@
         <v>13</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="H180" s="8" t="s">
         <v>13</v>
@@ -10450,19 +10621,19 @@
         <v>5</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>13</v>
@@ -10477,19 +10648,19 @@
         <v>10</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>13</v>
@@ -10504,19 +10675,19 @@
         <v>3</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>13</v>
@@ -10531,19 +10702,19 @@
         <v>15</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>13</v>
@@ -10558,19 +10729,19 @@
         <v>7</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="H185" s="8" t="s">
         <v>13</v>
@@ -10585,19 +10756,19 @@
         <v>15</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>13</v>
@@ -10612,17 +10783,17 @@
         <v>1</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="10" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>13</v>
@@ -10634,19 +10805,19 @@
         <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>13</v>
@@ -10660,19 +10831,19 @@
         <v>27</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>13</v>
@@ -10687,19 +10858,19 @@
         <v>28</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>13</v>
@@ -10714,19 +10885,19 @@
         <v>12</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="H191" s="8" t="s">
         <v>13</v>
@@ -10741,19 +10912,19 @@
         <v>7</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>13</v>
@@ -10768,19 +10939,19 @@
         <v>9</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H193" s="8" t="s">
         <v>13</v>
@@ -10795,19 +10966,19 @@
         <v>3</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>13</v>
@@ -10822,19 +10993,19 @@
         <v>3</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="H195" s="8" t="s">
         <v>13</v>
@@ -10849,19 +11020,19 @@
         <v>28</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="H196" s="8" t="s">
         <v>13</v>
@@ -10876,19 +11047,19 @@
         <v>27</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="H197" s="8" t="s">
         <v>13</v>
@@ -10903,19 +11074,19 @@
         <v>7</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>13</v>
@@ -10930,19 +11101,19 @@
         <v>30</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>13</v>
@@ -10957,19 +11128,19 @@
         <v>6</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="H200" s="8" t="s">
         <v>13</v>
@@ -10984,19 +11155,19 @@
         <v>28</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="H201" s="8" t="s">
         <v>13</v>
@@ -11011,19 +11182,19 @@
         <v>15</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>13</v>
@@ -11038,19 +11209,19 @@
         <v>6</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="H203" s="8" t="s">
         <v>13</v>
@@ -11059,13 +11230,13 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>13</v>
@@ -11079,19 +11250,19 @@
         <v>27</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="H205" s="8" t="s">
         <v>13</v>
@@ -11103,19 +11274,19 @@
         <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>13</v>
@@ -11129,16 +11300,16 @@
         <v>12</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="G207" s="10"/>
       <c r="H207" s="8" t="s">
@@ -11154,19 +11325,19 @@
         <v>12</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>13</v>
@@ -11181,19 +11352,19 @@
         <v>6</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="H209" s="8" t="s">
         <v>13</v>
@@ -11208,19 +11379,19 @@
         <v>6</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="H210" s="8" t="s">
         <v>13</v>
@@ -11235,19 +11406,19 @@
         <v>7</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="H211" s="8" t="s">
         <v>13</v>
@@ -11262,19 +11433,19 @@
         <v>7</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="H212" s="8" t="s">
         <v>13</v>
@@ -11289,19 +11460,19 @@
         <v>10</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="H213" s="8" t="s">
         <v>13</v>
@@ -11316,19 +11487,19 @@
         <v>13</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="H214" s="8" t="s">
         <v>13</v>
@@ -11343,19 +11514,19 @@
         <v>27</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="H215" s="8" t="s">
         <v>13</v>
@@ -11367,19 +11538,19 @@
         <v>43</v>
       </c>
       <c r="C216" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>13</v>
@@ -11393,19 +11564,19 @@
         <v>10</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="H217" s="8" t="s">
         <v>13</v>
@@ -11420,19 +11591,19 @@
         <v>10</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="H218" s="8" t="s">
         <v>13</v>
@@ -11447,19 +11618,19 @@
         <v>19</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>13</v>
@@ -11474,19 +11645,19 @@
         <v>7</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>13</v>
@@ -11501,19 +11672,19 @@
         <v>30</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="H221" s="8" t="s">
         <v>13</v>
@@ -11528,19 +11699,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="H222" s="8" t="s">
         <v>13</v>
@@ -11555,19 +11726,19 @@
         <v>26</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="H223" s="8" t="s">
         <v>13</v>
@@ -11582,19 +11753,19 @@
         <v>1</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="H224" s="8" t="s">
         <v>13</v>
@@ -11609,19 +11780,19 @@
         <v>1</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="H225" s="8" t="s">
         <v>13</v>
@@ -11636,19 +11807,19 @@
         <v>30</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="H226" s="8" t="s">
         <v>13</v>
@@ -11663,19 +11834,19 @@
         <v>13</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="H227" s="8" t="s">
         <v>13</v>
@@ -11690,19 +11861,19 @@
         <v>26</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="H228" s="8" t="s">
         <v>13</v>
@@ -11717,19 +11888,19 @@
         <v>6</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="H229" s="8" t="s">
         <v>13</v>
@@ -11744,19 +11915,19 @@
         <v>13</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="H230" s="8" t="s">
         <v>13</v>
@@ -11771,19 +11942,19 @@
         <v>3</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>13</v>
@@ -11798,19 +11969,19 @@
         <v>27</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="H232" s="8" t="s">
         <v>13</v>
@@ -11825,19 +11996,19 @@
         <v>7</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="H233" s="8" t="s">
         <v>13</v>
@@ -11852,19 +12023,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="H234" s="8" t="s">
         <v>13</v>
@@ -11879,19 +12050,19 @@
         <v>27</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="H235" s="8" t="s">
         <v>13</v>
@@ -11906,19 +12077,19 @@
         <v>3</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>13</v>
@@ -11933,19 +12104,19 @@
         <v>9</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="H237" s="8" t="s">
         <v>13</v>
@@ -11960,19 +12131,19 @@
         <v>9</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="H238" s="8" t="s">
         <v>13</v>
@@ -11987,19 +12158,19 @@
         <v>12</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="H239" s="8" t="s">
         <v>13</v>
@@ -12014,15 +12185,15 @@
         <v>4</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="10" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="H240" s="8" t="s">
         <v>13</v>
@@ -12034,19 +12205,19 @@
         <v>24</v>
       </c>
       <c r="C241" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>13</v>
@@ -12060,19 +12231,19 @@
         <v>12</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>609</v>
+        <v>1773</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="H242" s="8" t="s">
         <v>13</v>
@@ -12087,19 +12258,19 @@
         <v>1</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>13</v>
@@ -12108,25 +12279,25 @@
     </row>
     <row r="244" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B244" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="H244" s="8" t="s">
         <v>13</v>
@@ -12141,19 +12312,19 @@
         <v>7</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="H245" s="8" t="s">
         <v>13</v>
@@ -12168,19 +12339,19 @@
         <v>1</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="H246" s="8" t="s">
         <v>13</v>
@@ -12195,19 +12366,19 @@
         <v>1</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>614</v>
+        <v>1772</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="H247" s="8" t="s">
         <v>13</v>
@@ -12222,19 +12393,19 @@
         <v>25</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="H248" s="8" t="s">
         <v>13</v>
@@ -12249,19 +12420,19 @@
         <v>17</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="H249" s="8" t="s">
         <v>13</v>
@@ -12276,19 +12447,19 @@
         <v>3</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="H250" s="8" t="s">
         <v>13</v>
@@ -12303,19 +12474,19 @@
         <v>17</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="H251" s="8" t="s">
         <v>13</v>
@@ -12330,19 +12501,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="H252" s="8" t="s">
         <v>13</v>
@@ -12357,19 +12528,19 @@
         <v>15</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="H253" s="8" t="s">
         <v>13</v>
@@ -12384,19 +12555,19 @@
         <v>9</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="H254" s="8" t="s">
         <v>13</v>
@@ -12411,19 +12582,19 @@
         <v>17</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H255" s="8" t="s">
         <v>13</v>
@@ -12438,19 +12609,19 @@
         <v>25</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="H256" s="8" t="s">
         <v>13</v>
@@ -12465,19 +12636,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="H257" s="8" t="s">
         <v>13</v>
@@ -12492,19 +12663,19 @@
         <v>9</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="H258" s="8" t="s">
         <v>13</v>
@@ -12519,19 +12690,19 @@
         <v>12</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="H259" s="8" t="s">
         <v>13</v>
@@ -12546,19 +12717,19 @@
         <v>17</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H260" s="8" t="s">
         <v>13</v>
@@ -12573,19 +12744,19 @@
         <v>4</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="H261" s="8" t="s">
         <v>13</v>
@@ -12600,19 +12771,19 @@
         <v>27</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="H262" s="8" t="s">
         <v>13</v>
@@ -12621,25 +12792,25 @@
     </row>
     <row r="263" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B263" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="H263" s="8" t="s">
         <v>13</v>
@@ -12654,19 +12825,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="H264" s="8" t="s">
         <v>13</v>
@@ -12681,19 +12852,19 @@
         <v>28</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="H265" s="8" t="s">
         <v>13</v>
@@ -12708,19 +12879,19 @@
         <v>9</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="H266" s="8" t="s">
         <v>13</v>
@@ -12735,19 +12906,19 @@
         <v>4</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H267" s="8" t="s">
         <v>13</v>
@@ -12762,19 +12933,19 @@
         <v>15</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="H268" s="8" t="s">
         <v>13</v>
@@ -12789,19 +12960,19 @@
         <v>15</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="H269" s="8" t="s">
         <v>13</v>
@@ -12816,19 +12987,19 @@
         <v>27</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="H270" s="8" t="s">
         <v>13</v>
@@ -12843,19 +13014,19 @@
         <v>24</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="H271" s="8" t="s">
         <v>13</v>
@@ -12870,19 +13041,19 @@
         <v>19</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="H272" s="8" t="s">
         <v>13</v>
@@ -12897,19 +13068,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="H273" s="8" t="s">
         <v>13</v>
@@ -12924,19 +13095,19 @@
         <v>26</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="H274" s="8" t="s">
         <v>13</v>
@@ -12951,19 +13122,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="G275" s="10" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="H275" s="8" t="s">
         <v>13</v>
@@ -12978,19 +13149,19 @@
         <v>13</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="H276" s="8" t="s">
         <v>13</v>
@@ -13005,19 +13176,19 @@
         <v>12</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="H277" s="8" t="s">
         <v>13</v>
@@ -13032,19 +13203,19 @@
         <v>19</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="H278" s="8" t="s">
         <v>13</v>
@@ -13059,19 +13230,19 @@
         <v>6</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="H279" s="8" t="s">
         <v>13</v>
@@ -13086,19 +13257,19 @@
         <v>19</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="H280" s="8" t="s">
         <v>13</v>
@@ -13110,10 +13281,10 @@
         <v>7</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>8</v>
@@ -13130,19 +13301,19 @@
         <v>4</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="H282" s="8" t="s">
         <v>13</v>
@@ -13157,19 +13328,19 @@
         <v>26</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="H283" s="8" t="s">
         <v>13</v>
@@ -13184,19 +13355,19 @@
         <v>19</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="H284" s="8" t="s">
         <v>13</v>
@@ -13211,19 +13382,19 @@
         <v>19</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="H285" s="8" t="s">
         <v>13</v>
@@ -13238,19 +13409,19 @@
         <v>19</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>13</v>
@@ -13265,19 +13436,19 @@
         <v>26</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H287" s="8" t="s">
         <v>13</v>
@@ -13292,19 +13463,19 @@
         <v>26</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="H288" s="8" t="s">
         <v>13</v>
@@ -13319,19 +13490,19 @@
         <v>26</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="H289" s="8" t="s">
         <v>13</v>
@@ -13346,19 +13517,19 @@
         <v>19</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="H290" s="8" t="s">
         <v>13</v>
@@ -13373,19 +13544,19 @@
         <v>21</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="H291" s="8" t="s">
         <v>13</v>
@@ -13400,19 +13571,19 @@
         <v>16</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F292" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="H292" s="8" t="s">
         <v>13</v>
@@ -13427,19 +13598,19 @@
         <v>26</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="H293" s="8" t="s">
         <v>13</v>
@@ -13454,19 +13625,19 @@
         <v>19</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F294" s="9" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>13</v>
@@ -13481,19 +13652,19 @@
         <v>19</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="F295" s="9" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="H295" s="8" t="s">
         <v>13</v>
@@ -13508,19 +13679,19 @@
         <v>21</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="F296" s="9" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="G296" s="10" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="H296" s="8" t="s">
         <v>13</v>
@@ -13535,19 +13706,19 @@
         <v>27</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="H297" s="8" t="s">
         <v>13</v>
@@ -13562,19 +13733,19 @@
         <v>31</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="H298" s="8" t="s">
         <v>13</v>
@@ -13589,19 +13760,19 @@
         <v>26</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="H299" s="8" t="s">
         <v>13</v>
@@ -13616,19 +13787,19 @@
         <v>26</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="H300" s="8" t="s">
         <v>13</v>
@@ -13643,19 +13814,19 @@
         <v>26</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="H301" s="8" t="s">
         <v>13</v>
@@ -13670,19 +13841,19 @@
         <v>18</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F302" s="9" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="H302" s="8" t="s">
         <v>13</v>
@@ -13697,19 +13868,19 @@
         <v>4</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="H303" s="8" t="s">
         <v>13</v>
@@ -13724,19 +13895,19 @@
         <v>19</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>349</v>
+        <v>1766</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="H304" s="8" t="s">
         <v>13</v>
@@ -13751,19 +13922,19 @@
         <v>22</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="H305" s="8" t="s">
         <v>13</v>
@@ -13775,19 +13946,19 @@
         <v>53</v>
       </c>
       <c r="C306" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>13</v>
@@ -13801,19 +13972,19 @@
         <v>26</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="F307" s="9" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="H307" s="8" t="s">
         <v>13</v>
@@ -13828,19 +13999,19 @@
         <v>26</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="H308" s="8" t="s">
         <v>13</v>
@@ -13855,19 +14026,19 @@
         <v>4</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="H309" s="8" t="s">
         <v>13</v>
@@ -13882,19 +14053,19 @@
         <v>22</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="H310" s="8" t="s">
         <v>13</v>
@@ -13909,19 +14080,19 @@
         <v>16</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="H311" s="8" t="s">
         <v>13</v>
@@ -13936,19 +14107,19 @@
         <v>31</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="H312" s="8" t="s">
         <v>13</v>
@@ -13963,19 +14134,19 @@
         <v>25</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H313" s="8" t="s">
         <v>13</v>
@@ -13990,19 +14161,19 @@
         <v>25</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="H314" s="8" t="s">
         <v>13</v>
@@ -14017,19 +14188,19 @@
         <v>19</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>359</v>
+        <v>1767</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="H315" s="8" t="s">
         <v>13</v>
@@ -14044,19 +14215,19 @@
         <v>19</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="H316" s="8" t="s">
         <v>13</v>
@@ -14071,19 +14242,19 @@
         <v>22</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="H317" s="8" t="s">
         <v>13</v>
@@ -14098,19 +14269,19 @@
         <v>16</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="G318" s="10" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="H318" s="8" t="s">
         <v>13</v>
@@ -14125,19 +14296,19 @@
         <v>16</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="H319" s="8" t="s">
         <v>13</v>
@@ -14152,19 +14323,19 @@
         <v>16</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="H320" s="8" t="s">
         <v>13</v>
@@ -14179,19 +14350,19 @@
         <v>12</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="H321" s="8" t="s">
         <v>13</v>
@@ -14206,19 +14377,19 @@
         <v>12</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="G322" s="10" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="H322" s="8" t="s">
         <v>13</v>
@@ -14233,19 +14404,19 @@
         <v>19</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="H323" s="8" t="s">
         <v>13</v>
@@ -14260,19 +14431,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="H324" s="8" t="s">
         <v>13</v>
@@ -14287,19 +14458,19 @@
         <v>21</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="G325" s="10" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="H325" s="8" t="s">
         <v>13</v>
@@ -14314,19 +14485,19 @@
         <v>25</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="H326" s="8" t="s">
         <v>13</v>
@@ -14341,19 +14512,19 @@
         <v>16</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="H327" s="8" t="s">
         <v>13</v>
@@ -14368,19 +14539,19 @@
         <v>25</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="H328" s="8" t="s">
         <v>13</v>
@@ -14395,19 +14566,19 @@
         <v>22</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="H329" s="8" t="s">
         <v>13</v>
@@ -14422,19 +14593,19 @@
         <v>25</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="H330" s="8" t="s">
         <v>13</v>
@@ -14449,19 +14620,19 @@
         <v>7</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="F331" s="9" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="H331" s="8" t="s">
         <v>13</v>
@@ -14476,19 +14647,19 @@
         <v>22</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="H332" s="8" t="s">
         <v>13</v>
@@ -14503,19 +14674,19 @@
         <v>5</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="H333" s="8" t="s">
         <v>13</v>
@@ -14530,19 +14701,19 @@
         <v>5</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="F334" s="9" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="H334" s="8" t="s">
         <v>13</v>
@@ -14557,19 +14728,19 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="H335" s="8" t="s">
         <v>13</v>
@@ -14583,19 +14754,19 @@
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="H336" s="8" t="s">
         <v>13</v>
@@ -14609,19 +14780,19 @@
         <v>29</v>
       </c>
       <c r="C337" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="H337" s="8" t="s">
         <v>13</v>
@@ -14635,19 +14806,19 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H338" s="8" t="s">
         <v>13</v>
@@ -14661,19 +14832,19 @@
         <v>4</v>
       </c>
       <c r="C339" t="s">
-        <v>1692</v>
+        <v>1768</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="H339" s="8" t="s">
         <v>13</v>
@@ -14681,25 +14852,25 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="B340" s="2">
         <v>32</v>
       </c>
       <c r="C340" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H340" s="8" t="s">
         <v>13</v>
@@ -14713,19 +14884,19 @@
         <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="H341" s="8" t="s">
         <v>13</v>
@@ -14739,19 +14910,19 @@
         <v>8</v>
       </c>
       <c r="C342" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="H342" s="8" t="s">
         <v>13</v>
@@ -14765,19 +14936,19 @@
         <v>29</v>
       </c>
       <c r="C343" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>13</v>
@@ -14791,19 +14962,19 @@
         <v>22</v>
       </c>
       <c r="C344" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="H344" s="8" t="s">
         <v>13</v>
@@ -14817,19 +14988,19 @@
         <v>22</v>
       </c>
       <c r="C345" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="H345" s="8" t="s">
         <v>13</v>
@@ -14843,19 +15014,19 @@
         <v>17</v>
       </c>
       <c r="C346" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="H346" s="8" t="s">
         <v>13</v>
@@ -14869,19 +15040,19 @@
         <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="H347" s="8" t="s">
         <v>13</v>
@@ -14895,19 +15066,19 @@
         <v>29</v>
       </c>
       <c r="C348" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="H348" s="8" t="s">
         <v>13</v>
@@ -14921,19 +15092,19 @@
         <v>33</v>
       </c>
       <c r="C349" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="H349" s="8" t="s">
         <v>13</v>
@@ -14950,16 +15121,16 @@
         <v>55</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="H350" s="8" t="s">
         <v>13</v>
@@ -14973,19 +15144,19 @@
         <v>28</v>
       </c>
       <c r="C351" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="H351" s="8" t="s">
         <v>13</v>
@@ -14999,19 +15170,19 @@
         <v>29</v>
       </c>
       <c r="C352" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="H352" s="8" t="s">
         <v>13</v>
@@ -15025,19 +15196,19 @@
         <v>19</v>
       </c>
       <c r="C353" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H353" s="8" t="s">
         <v>13</v>
@@ -15051,20 +15222,343 @@
         <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="E354" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B355" s="8">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D355" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="H354" s="8" t="s">
+      <c r="E355" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>39</v>
+      </c>
+      <c r="B356" s="2">
+        <v>33</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" s="8">
+        <v>19</v>
+      </c>
+      <c r="C357" t="s">
+        <v>67</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H357" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C358" s="12"/>
+      <c r="A358" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B358" s="8">
+        <v>22</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H358" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>39</v>
+      </c>
+      <c r="B359" s="2">
+        <v>33</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360" s="8">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>309</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H360" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" s="8">
+        <v>19</v>
+      </c>
+      <c r="C361" t="s">
+        <v>141</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B362" s="8">
+        <v>18</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B363" s="8">
+        <v>20</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" s="8">
+        <v>24</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H364" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B365" s="8">
+        <v>20</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B366" s="2">
+        <v>34</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H366" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B367" s="2">
+        <v>34</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
